--- a/Thong ke Url.xlsx
+++ b/Thong ke Url.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duluong\store\japtool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4463A7C0-B236-4EE3-A7A6-AA8B24241232}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="18195" windowHeight="12330" tabRatio="493"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="18192" windowHeight="12336" tabRatio="493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$45</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -339,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,9 +538,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -543,22 +546,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -566,50 +554,68 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -626,6 +632,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -674,7 +683,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -707,9 +716,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,6 +768,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,548 +960,546 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
       <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
       <c r="B11" s="24"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
       <c r="B14" s="24"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="15" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="15" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="15" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="15" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="15" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="15" t="s">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="15" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="15" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="15" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="15" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="27"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="15" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="15" t="s">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="27"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="15" t="s">
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="27"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="16" t="s">
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1470,16 +1511,16 @@
       <c r="E34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1496,11 +1537,11 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1509,7 +1550,7 @@
       <c r="D36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -1517,9 +1558,9 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1528,17 +1569,17 @@
       <c r="D37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1555,63 +1596,63 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="31"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1620,23 +1661,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="C16:C26"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="B16:B33"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A6:A15"/>
-    <mergeCell ref="C16:C26"/>
     <mergeCell ref="C27:C29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B34" r:id="rId3"/>
-    <hyperlink ref="B35" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B35" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId5"/>
@@ -1644,24 +1685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
